--- a/LubanTool/Config/Datas/player.xlsx
+++ b/LubanTool/Config/Datas/player.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YANG\YangTool\LubanTool\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613B0AF1-C20C-4A2C-9124-11D60A540D15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A7E700-C3F2-44D7-9B1C-406853A764B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="915" windowWidth="25770" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -148,6 +148,34 @@
   </si>
   <si>
     <t>模板角色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AL14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,18 +633,18 @@
     <col min="2" max="2" width="6.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -630,34 +658,40 @@
         <v>37</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="3"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -676,8 +710,11 @@
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
       <c r="AI1" s="4"/>
-    </row>
-    <row r="2" spans="1:35" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+    </row>
+    <row r="2" spans="1:38" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -691,16 +728,16 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
@@ -719,8 +756,11 @@
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
-    </row>
-    <row r="3" spans="1:35" s="10" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+    </row>
+    <row r="3" spans="1:38" s="10" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -734,34 +774,40 @@
         <v>13</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="O3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="3"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -780,8 +826,11 @@
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
-    </row>
-    <row r="4" spans="1:35" s="10" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+    </row>
+    <row r="4" spans="1:38" s="10" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -793,24 +842,24 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="3"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -829,8 +878,11 @@
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
-    </row>
-    <row r="5" spans="1:35" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+    </row>
+    <row r="5" spans="1:38" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -844,32 +896,38 @@
         <v>26</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7" t="s">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="3"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -888,10 +946,13 @@
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
-    </row>
-    <row r="6" spans="1:35" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+    </row>
+    <row r="6" spans="1:38" s="15" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="16">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>40</v>
@@ -903,31 +964,40 @@
         <v>100</v>
       </c>
       <c r="F6" s="16">
+        <v>3000</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="16">
+        <v>100</v>
+      </c>
+      <c r="I6" s="16">
         <v>10001</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="J6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="16" t="b">
+      <c r="K6" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="L6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="M6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="N6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="16">
+      <c r="O6" s="16">
         <v>10001</v>
       </c>
-      <c r="M6" s="16">
+      <c r="P6" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -940,8 +1010,11 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:35" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="1:38" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -954,8 +1027,11 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:35" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:38" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -968,8 +1044,11 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:35" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:38" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -982,8 +1061,11 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:35" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:38" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -996,36 +1078,45 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:35" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="1:38" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:35" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:38" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:35" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="1:38" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -1038,11 +1129,14 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
